--- a/資料_20171020_総合演習/チーム内打ち合わせメモ.xlsx
+++ b/資料_20171020_総合演習/チーム内打ち合わせメモ.xlsx
@@ -7,15 +7,16 @@
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="01_MTG（打合前）" sheetId="1" r:id="rId1"/>
-    <sheet name="02_ユーザー打合せ" sheetId="3" r:id="rId2"/>
+    <sheet name="01_チーム内MTG" sheetId="1" r:id="rId1"/>
+    <sheet name="02_ユーザー打合せ（一回目）" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="85">
   <si>
     <t>会議室予約</t>
     <rPh sb="0" eb="3">
@@ -780,6 +781,209 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ヒョウゲン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約受付</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ウケツケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>→</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>上長に承認依頼メール（メール内に承認画面へのリンク（要ログイン））</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウチョウ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イライ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ショウニン</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="26" eb="27">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>承認</t>
+    <rPh sb="0" eb="2">
+      <t>ショウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一覧に載る</t>
+    <rPh sb="0" eb="2">
+      <t>イチラン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>検索による絞込み</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>シボリコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日付</t>
+    <rPh sb="0" eb="2">
+      <t>ヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>時間帯</t>
+    <rPh sb="0" eb="3">
+      <t>ジカンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30分単位</t>
+    <rPh sb="2" eb="3">
+      <t>フン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>タンイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログイン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>既存の社員管理システム流用</t>
+    <rPh sb="0" eb="2">
+      <t>キゾン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シャイン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>リュウヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約を強制的に変更できる権限の設定</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>キョウセイテキ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ケンゲン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>セッテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>予約詳細画面にて、予約登録者、および最終変更者の履歴を表示</t>
+    <rPh sb="0" eb="2">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウサイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ガメン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ヨヤク</t>
+    </rPh>
+    <rPh sb="11" eb="14">
+      <t>トウロクシャ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>ヘンコウ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>シャ</t>
+    </rPh>
+    <rPh sb="24" eb="26">
+      <t>リレキ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>出席者</t>
+    <rPh sb="0" eb="3">
+      <t>シュッセキシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>向山</t>
+    <rPh sb="0" eb="2">
+      <t>ムカイヤマ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミッチェル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>香川</t>
+    <rPh sb="0" eb="2">
+      <t>カガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日時</t>
+    <rPh sb="0" eb="2">
+      <t>ニチジ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -831,9 +1035,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="56" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1138,188 +1343,221 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:F56"/>
+  <dimension ref="B2:F67"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:XFD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C3" s="2">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
+    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D15" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
+    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="E16" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E6" t="s">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E17" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="F7" t="s">
+    <row r="18" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="F18" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="E9" t="s">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="B14" t="s">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.15">
-      <c r="C16" s="1" t="s">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C27" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C17" s="1"/>
-      <c r="D17" t="s">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C28" s="1"/>
+      <c r="D28" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="18" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C18" s="1"/>
-      <c r="D18" t="s">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C29" s="1"/>
+      <c r="D29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="19" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D19" t="s">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C21" s="1" t="s">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="C32" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D22" t="s">
+    <row r="33" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D33" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E23" t="s">
+    <row r="34" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E34" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F24" t="s">
+    <row r="35" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F35" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="25" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F25" t="s">
+    <row r="36" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F36" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="26" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="F26" t="s">
+    <row r="37" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="F37" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="29" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="C29" s="1" t="s">
+    <row r="40" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C40" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="30" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+    <row r="41" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D41" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="31" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
+    <row r="42" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E42" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="3:6" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
+    <row r="43" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="E43" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D33" t="s">
+    <row r="44" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D44" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C35" s="1" t="s">
+    <row r="46" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="C46" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D36" t="s">
+    <row r="47" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D47" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D37" t="s">
+    <row r="48" spans="3:6" x14ac:dyDescent="0.15">
+      <c r="D48" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D38" t="s">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D49" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D39" t="s">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D50" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D40" t="s">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D51" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C45" t="s">
+    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C56" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C46" t="s">
+    <row r="57" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C51" t="s">
+    <row r="62" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C62" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C54" t="s">
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D55" t="s">
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D56" t="s">
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1332,171 +1570,294 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E35"/>
+  <dimension ref="B2:G70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="9.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C3" s="2">
+        <v>43028</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C8" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C10" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C12" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C3" t="s">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D4" t="s">
+    <row r="18" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D18" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E5" t="s">
+    <row r="19" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E19" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E6" t="s">
+    <row r="20" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E20" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E7" t="s">
+    <row r="21" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D9" t="s">
+    <row r="23" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D23" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D10" t="s">
+    <row r="24" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D24" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D11" t="s">
+    <row r="25" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D25" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D12" t="s">
+    <row r="26" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D26" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D13" t="s">
+    <row r="27" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D27" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D14" t="s">
+    <row r="28" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D28" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D15" t="s">
+    <row r="29" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D29" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D16" t="s">
+    <row r="30" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D30" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D17" t="s">
+    <row r="31" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D31" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" t="s">
+    <row r="34" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B34" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C21" t="s">
+    <row r="35" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C22" t="s">
+    <row r="36" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C23" t="s">
+    <row r="37" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D24" t="s">
+    <row r="38" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D38" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D25" t="s">
+    <row r="39" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="D39" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C26" t="s">
+    <row r="40" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="E40" t="s">
+        <v>65</v>
+      </c>
+      <c r="F40" t="s">
+        <v>66</v>
+      </c>
+      <c r="G40" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G41" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="42" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G42" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="43" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G43" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="44" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="G44" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="C48" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C27" t="s">
+    <row r="49" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C28" t="s">
+    <row r="50" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C50" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="C29" t="s">
+    <row r="51" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C51" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="D30" t="s">
+    <row r="52" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="D52" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E31" t="s">
+    <row r="53" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E53" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="E32" t="s">
+    <row r="54" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E54" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E33" t="s">
+    <row r="55" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E55" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="E34" t="s">
+    <row r="56" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="E56" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.15">
-      <c r="C35" t="s">
+    <row r="57" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="59" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="61" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="64" spans="3:5" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D65" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D66" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D67" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
+      <c r="D70" t="s">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>